--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Nodes_test/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Nodes_test/Compare_Figure.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\测试数据\Nodes_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Nodes_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AE8446-1418-4C12-B81F-AB15CAC0AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22564F8E-81F3-472E-A1B2-355016581502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Latency!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Latency!$B$2:$B$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -205,34 +201,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,34 +240,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.126363</c:v>
+                  <c:v>0.151225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14974599999999999</c:v>
+                  <c:v>0.15554999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144424</c:v>
+                  <c:v>0.15897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156</c:v>
+                  <c:v>0.16822500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.175236</c:v>
+                  <c:v>0.18137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18049000000000001</c:v>
+                  <c:v>0.20833499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17979800000000001</c:v>
+                  <c:v>0.24097499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19903999999999999</c:v>
+                  <c:v>0.31336000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.212642</c:v>
+                  <c:v>0.38152000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.228322</c:v>
+                  <c:v>0.48722500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,34 +317,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,34 +356,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23938100000000001</c:v>
+                  <c:v>0.29381000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.255243</c:v>
+                  <c:v>0.29420499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.262486</c:v>
+                  <c:v>0.30343999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29287400000000002</c:v>
+                  <c:v>0.31203999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28681600000000002</c:v>
+                  <c:v>0.32700499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32458700000000001</c:v>
+                  <c:v>0.35369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30973400000000001</c:v>
+                  <c:v>0.37950499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33900400000000003</c:v>
+                  <c:v>0.435255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33877800000000002</c:v>
+                  <c:v>0.53451000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31510300000000002</c:v>
+                  <c:v>0.65007000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,34 +433,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,34 +472,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.46851100000000001</c:v>
+                  <c:v>0.57544499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48174499999999998</c:v>
+                  <c:v>0.58062999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49898700000000001</c:v>
+                  <c:v>0.58788499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50326700000000002</c:v>
+                  <c:v>0.59779499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53826499999999999</c:v>
+                  <c:v>0.61241999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52337599999999995</c:v>
+                  <c:v>0.63514999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.535968</c:v>
+                  <c:v>0.68076499999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55454199999999998</c:v>
+                  <c:v>0.74646500000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57884800000000003</c:v>
+                  <c:v>0.84594500000000017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55297700000000005</c:v>
+                  <c:v>1.01006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,128 +508,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-10FB-4FF0-8137-6948AD4F465C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4MB</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Latency!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Latency!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.92457599999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93484500000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.959727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96865400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96459700000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99151599999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99651100000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0084070000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.993085</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0559959999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-10FB-4FF0-8137-6948AD4F465C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -678,11 +552,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> of Nodes</a:t>
+                  <a:t>Network Size</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -874,8 +744,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15984689413823272"/>
-          <c:y val="2.775515129574343E-4"/>
+          <c:x val="0.16540244969378828"/>
+          <c:y val="0.10755724499954748"/>
           <c:w val="0.17070866141732283"/>
           <c:h val="0.25862249977373519"/>
         </c:manualLayout>
@@ -1013,34 +883,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,34 +922,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8095</c:v>
+                  <c:v>6764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6831</c:v>
+                  <c:v>6576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7083</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6557</c:v>
+                  <c:v>6081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5837</c:v>
+                  <c:v>5640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5667</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5689</c:v>
+                  <c:v>4245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5139</c:v>
+                  <c:v>3264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4810</c:v>
+                  <c:v>2681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4480</c:v>
+                  <c:v>2099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,34 +999,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,34 +1038,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8551</c:v>
+                  <c:v>6967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8019</c:v>
+                  <c:v>6957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7798</c:v>
+                  <c:v>6745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6989</c:v>
+                  <c:v>6560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7136</c:v>
+                  <c:v>6259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6306</c:v>
+                  <c:v>5787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6608</c:v>
+                  <c:v>5393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6038</c:v>
+                  <c:v>4702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6042</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6496</c:v>
+                  <c:v>3148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,34 +1115,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,34 +1154,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8740</c:v>
+                  <c:v>7116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8500</c:v>
+                  <c:v>7052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8206</c:v>
+                  <c:v>6965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8136</c:v>
+                  <c:v>6850</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7607</c:v>
+                  <c:v>6686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7824</c:v>
+                  <c:v>6447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7640</c:v>
+                  <c:v>6015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7384</c:v>
+                  <c:v>5485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7074</c:v>
+                  <c:v>4840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7405</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,128 +1190,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2371-4DD9-9571-189D6CA7F63B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4MB</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8859</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8761</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8534</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8261</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8248</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7756</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2371-4DD9-9571-189D6CA7F63B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1486,7 +1234,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Number of Nodes</a:t>
+                  <a:t>Network Size</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -2860,16 +2608,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3203,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3231,16 +2979,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>0.126363</v>
+        <v>0.151225</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23938100000000001</v>
+        <v>0.29381000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>0.46851100000000001</v>
+        <v>0.57544499999999998</v>
       </c>
       <c r="E2" s="1">
         <v>0.92457599999999995</v>
@@ -3248,16 +2996,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>0.14974599999999999</v>
+        <v>0.15554999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>0.255243</v>
+        <v>0.29420499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.48174499999999998</v>
+        <v>0.58062999999999998</v>
       </c>
       <c r="E3" s="1">
         <v>0.93484500000000004</v>
@@ -3265,16 +3013,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1">
-        <v>0.144424</v>
+        <v>0.15897</v>
       </c>
       <c r="C4" s="1">
-        <v>0.262486</v>
+        <v>0.30343999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>0.49898700000000001</v>
+        <v>0.58788499999999999</v>
       </c>
       <c r="E4" s="1">
         <v>0.959727</v>
@@ -3282,16 +3030,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>0.156</v>
+        <v>0.16822500000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.29287400000000002</v>
+        <v>0.31203999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.50326700000000002</v>
+        <v>0.59779499999999997</v>
       </c>
       <c r="E5" s="1">
         <v>0.96865400000000002</v>
@@ -3299,16 +3047,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>0.175236</v>
+        <v>0.18137</v>
       </c>
       <c r="C6" s="1">
-        <v>0.28681600000000002</v>
+        <v>0.32700499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>0.53826499999999999</v>
+        <v>0.61241999999999996</v>
       </c>
       <c r="E6" s="1">
         <v>0.96459700000000004</v>
@@ -3316,16 +3064,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1">
-        <v>0.18049000000000001</v>
+        <v>0.20833499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.32458700000000001</v>
+        <v>0.35369</v>
       </c>
       <c r="D7" s="1">
-        <v>0.52337599999999995</v>
+        <v>0.63514999999999999</v>
       </c>
       <c r="E7" s="1">
         <v>0.99151599999999995</v>
@@ -3333,16 +3081,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1">
-        <v>0.17979800000000001</v>
+        <v>0.24097499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.30973400000000001</v>
+        <v>0.37950499999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>0.535968</v>
+        <v>0.68076499999999995</v>
       </c>
       <c r="E8" s="1">
         <v>0.99651100000000004</v>
@@ -3350,16 +3098,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B9" s="1">
-        <v>0.19903999999999999</v>
+        <v>0.31336000000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>0.33900400000000003</v>
+        <v>0.435255</v>
       </c>
       <c r="D9" s="1">
-        <v>0.55454199999999998</v>
+        <v>0.74646500000000005</v>
       </c>
       <c r="E9" s="1">
         <v>1.0084070000000001</v>
@@ -3367,16 +3115,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="B10" s="1">
-        <v>0.212642</v>
+        <v>0.38152000000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33877800000000002</v>
+        <v>0.53451000000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>0.57884800000000003</v>
+        <v>0.84594500000000017</v>
       </c>
       <c r="E10" s="1">
         <v>0.993085</v>
@@ -3384,16 +3132,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B11" s="1">
-        <v>0.228322</v>
+        <v>0.48722500000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>0.31510300000000002</v>
+        <v>0.65007000000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>0.55297700000000005</v>
+        <v>1.01006</v>
       </c>
       <c r="E11" s="1">
         <v>1.0559959999999999</v>
@@ -3410,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9ECDBF-8DCA-4284-9BF3-3E10B9ECBC1B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3438,16 +3186,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>8095</v>
+        <v>6764</v>
       </c>
       <c r="C2" s="1">
-        <v>8551</v>
+        <v>6967</v>
       </c>
       <c r="D2" s="1">
-        <v>8740</v>
+        <v>7116</v>
       </c>
       <c r="E2" s="1">
         <v>8859</v>
@@ -3455,16 +3203,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>6831</v>
+        <v>6576</v>
       </c>
       <c r="C3" s="1">
-        <v>8019</v>
+        <v>6957</v>
       </c>
       <c r="D3" s="1">
-        <v>8500</v>
+        <v>7052</v>
       </c>
       <c r="E3" s="1">
         <v>8761</v>
@@ -3472,16 +3220,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1">
-        <v>7083</v>
+        <v>6435</v>
       </c>
       <c r="C4" s="1">
-        <v>7798</v>
+        <v>6745</v>
       </c>
       <c r="D4" s="1">
-        <v>8206</v>
+        <v>6965</v>
       </c>
       <c r="E4" s="1">
         <v>8534</v>
@@ -3489,16 +3237,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>6557</v>
+        <v>6081</v>
       </c>
       <c r="C5" s="1">
-        <v>6989</v>
+        <v>6560</v>
       </c>
       <c r="D5" s="1">
-        <v>8136</v>
+        <v>6850</v>
       </c>
       <c r="E5" s="1">
         <v>8456</v>
@@ -3506,16 +3254,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>5837</v>
+        <v>5640</v>
       </c>
       <c r="C6" s="1">
-        <v>7136</v>
+        <v>6259</v>
       </c>
       <c r="D6" s="1">
-        <v>7607</v>
+        <v>6686</v>
       </c>
       <c r="E6" s="1">
         <v>8491</v>
@@ -3523,16 +3271,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1">
-        <v>5667</v>
+        <v>4910</v>
       </c>
       <c r="C7" s="1">
-        <v>6306</v>
+        <v>5787</v>
       </c>
       <c r="D7" s="1">
-        <v>7824</v>
+        <v>6447</v>
       </c>
       <c r="E7" s="1">
         <v>8261</v>
@@ -3540,16 +3288,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1">
-        <v>5689</v>
+        <v>4245</v>
       </c>
       <c r="C8" s="1">
-        <v>6608</v>
+        <v>5393</v>
       </c>
       <c r="D8" s="1">
-        <v>7640</v>
+        <v>6015</v>
       </c>
       <c r="E8" s="1">
         <v>8219</v>
@@ -3557,16 +3305,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B9" s="1">
-        <v>5139</v>
+        <v>3264</v>
       </c>
       <c r="C9" s="1">
-        <v>6038</v>
+        <v>4702</v>
       </c>
       <c r="D9" s="1">
-        <v>7384</v>
+        <v>5485</v>
       </c>
       <c r="E9" s="1">
         <v>8122</v>
@@ -3574,16 +3322,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="B10" s="1">
-        <v>4810</v>
+        <v>2681</v>
       </c>
       <c r="C10" s="1">
-        <v>6042</v>
+        <v>3829</v>
       </c>
       <c r="D10" s="1">
-        <v>7074</v>
+        <v>4840</v>
       </c>
       <c r="E10" s="1">
         <v>8248</v>
@@ -3591,16 +3339,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B11" s="1">
-        <v>4480</v>
+        <v>2099</v>
       </c>
       <c r="C11" s="1">
-        <v>6496</v>
+        <v>3148</v>
       </c>
       <c r="D11" s="1">
-        <v>7405</v>
+        <v>4054</v>
       </c>
       <c r="E11" s="1">
         <v>7756</v>
